--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Npr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6973903333333333</v>
+        <v>0.01599966666666667</v>
       </c>
       <c r="H2">
-        <v>2.092171</v>
+        <v>0.047999</v>
       </c>
       <c r="I2">
-        <v>0.1027573153102958</v>
+        <v>0.0009948988194802843</v>
       </c>
       <c r="J2">
-        <v>0.1027573153102958</v>
+        <v>0.0009948988194802843</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>16.03372966666667</v>
+        <v>13.65974866666667</v>
       </c>
       <c r="N2">
-        <v>48.10118900000001</v>
+        <v>40.979246</v>
       </c>
       <c r="O2">
-        <v>0.4163765289383711</v>
+        <v>0.383515069756994</v>
       </c>
       <c r="P2">
-        <v>0.416376528938371</v>
+        <v>0.3835150697569941</v>
       </c>
       <c r="Q2">
-        <v>11.18176807681322</v>
+        <v>0.2185514254171111</v>
       </c>
       <c r="R2">
-        <v>100.635912691319</v>
+        <v>1.966962828754</v>
       </c>
       <c r="S2">
-        <v>0.04278573427192672</v>
+        <v>0.0003815586901541322</v>
       </c>
       <c r="T2">
-        <v>0.04278573427192671</v>
+        <v>0.0003815586901541323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6973903333333333</v>
+        <v>0.01599966666666667</v>
       </c>
       <c r="H3">
-        <v>2.092171</v>
+        <v>0.047999</v>
       </c>
       <c r="I3">
-        <v>0.1027573153102958</v>
+        <v>0.0009948988194802843</v>
       </c>
       <c r="J3">
-        <v>0.1027573153102958</v>
+        <v>0.0009948988194802843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>51.314085</v>
       </c>
       <c r="O3">
-        <v>0.444188200793717</v>
+        <v>0.4802363832729211</v>
       </c>
       <c r="P3">
-        <v>0.4441882007937169</v>
+        <v>0.4802363832729211</v>
       </c>
       <c r="Q3">
-        <v>11.928648947615</v>
+        <v>0.273669418435</v>
       </c>
       <c r="R3">
-        <v>107.357840528535</v>
+        <v>2.463024765915</v>
       </c>
       <c r="S3">
-        <v>0.04564358700607297</v>
+        <v>0.0004777866107897106</v>
       </c>
       <c r="T3">
-        <v>0.04564358700607297</v>
+        <v>0.0004777866107897106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6973903333333333</v>
+        <v>0.01599966666666667</v>
       </c>
       <c r="H4">
-        <v>2.092171</v>
+        <v>0.047999</v>
       </c>
       <c r="I4">
-        <v>0.1027573153102958</v>
+        <v>0.0009948988194802843</v>
       </c>
       <c r="J4">
-        <v>0.1027573153102958</v>
+        <v>0.0009948988194802843</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.369340666666666</v>
+        <v>4.852797333333333</v>
       </c>
       <c r="N4">
-        <v>16.108022</v>
+        <v>14.558392</v>
       </c>
       <c r="O4">
-        <v>0.139435270267912</v>
+        <v>0.1362485469700849</v>
       </c>
       <c r="P4">
-        <v>0.139435270267912</v>
+        <v>0.1362485469700849</v>
       </c>
       <c r="Q4">
-        <v>3.744526277306889</v>
+        <v>0.07764313973422221</v>
       </c>
       <c r="R4">
-        <v>33.70073649576199</v>
+        <v>0.698788257608</v>
       </c>
       <c r="S4">
-        <v>0.01432799403229615</v>
+        <v>0.0001355535185364415</v>
       </c>
       <c r="T4">
-        <v>0.01432799403229615</v>
+        <v>0.0001355535185364415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,46 +720,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.089380333333334</v>
+        <v>0.6973903333333333</v>
       </c>
       <c r="H5">
-        <v>18.268141</v>
+        <v>2.092171</v>
       </c>
       <c r="I5">
-        <v>0.8972426846897041</v>
+        <v>0.04336545465636547</v>
       </c>
       <c r="J5">
-        <v>0.8972426846897041</v>
+        <v>0.04336545465636547</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>16.03372966666667</v>
+        <v>13.65974866666667</v>
       </c>
       <c r="N5">
-        <v>48.10118900000001</v>
+        <v>40.979246</v>
       </c>
       <c r="O5">
-        <v>0.4163765289383711</v>
+        <v>0.383515069756994</v>
       </c>
       <c r="P5">
-        <v>0.416376528938371</v>
+        <v>0.3835150697569941</v>
       </c>
       <c r="Q5">
-        <v>97.63547810218324</v>
+        <v>9.526176675896222</v>
       </c>
       <c r="R5">
-        <v>878.7193029196491</v>
+        <v>85.735590083066</v>
       </c>
       <c r="S5">
-        <v>0.3735907946664444</v>
+        <v>0.01663130536757976</v>
       </c>
       <c r="T5">
-        <v>0.3735907946664443</v>
+        <v>0.01663130536757976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>6.089380333333334</v>
+        <v>0.6973903333333333</v>
       </c>
       <c r="H6">
-        <v>18.268141</v>
+        <v>2.092171</v>
       </c>
       <c r="I6">
-        <v>0.8972426846897041</v>
+        <v>0.04336545465636547</v>
       </c>
       <c r="J6">
-        <v>0.8972426846897041</v>
+        <v>0.04336545465636547</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>51.314085</v>
       </c>
       <c r="O6">
-        <v>0.444188200793717</v>
+        <v>0.4802363832729211</v>
       </c>
       <c r="P6">
-        <v>0.4441882007937169</v>
+        <v>0.4802363832729211</v>
       </c>
       <c r="Q6">
-        <v>104.156993340665</v>
+        <v>11.928648947615</v>
       </c>
       <c r="R6">
-        <v>937.412940065985</v>
+        <v>107.357840528535</v>
       </c>
       <c r="S6">
-        <v>0.398544613787644</v>
+        <v>0.02082566910315881</v>
       </c>
       <c r="T6">
-        <v>0.3985446137876439</v>
+        <v>0.02082566910315881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>6.089380333333334</v>
+        <v>0.6973903333333333</v>
       </c>
       <c r="H7">
-        <v>18.268141</v>
+        <v>2.092171</v>
       </c>
       <c r="I7">
-        <v>0.8972426846897041</v>
+        <v>0.04336545465636547</v>
       </c>
       <c r="J7">
-        <v>0.8972426846897041</v>
+        <v>0.04336545465636547</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.369340666666666</v>
+        <v>4.852797333333333</v>
       </c>
       <c r="N7">
-        <v>16.108022</v>
+        <v>14.558392</v>
       </c>
       <c r="O7">
-        <v>0.139435270267912</v>
+        <v>0.1362485469700849</v>
       </c>
       <c r="P7">
-        <v>0.139435270267912</v>
+        <v>0.1362485469700849</v>
       </c>
       <c r="Q7">
-        <v>32.69595745856689</v>
+        <v>3.384293949892444</v>
       </c>
       <c r="R7">
-        <v>294.263617127102</v>
+        <v>30.458645549032</v>
       </c>
       <c r="S7">
-        <v>0.1251072762356159</v>
+        <v>0.005908480185626897</v>
       </c>
       <c r="T7">
-        <v>0.1251072762356158</v>
+        <v>0.005908480185626897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.36831233333333</v>
+      </c>
+      <c r="H8">
+        <v>46.104937</v>
+      </c>
+      <c r="I8">
+        <v>0.9556396465241543</v>
+      </c>
+      <c r="J8">
+        <v>0.9556396465241543</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.65974866666667</v>
+      </c>
+      <c r="N8">
+        <v>40.979246</v>
+      </c>
+      <c r="O8">
+        <v>0.383515069756994</v>
+      </c>
+      <c r="P8">
+        <v>0.3835150697569941</v>
+      </c>
+      <c r="Q8">
+        <v>209.9272839041669</v>
+      </c>
+      <c r="R8">
+        <v>1889.345555137502</v>
+      </c>
+      <c r="S8">
+        <v>0.3665022056992602</v>
+      </c>
+      <c r="T8">
+        <v>0.3665022056992602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.36831233333333</v>
+      </c>
+      <c r="H9">
+        <v>46.104937</v>
+      </c>
+      <c r="I9">
+        <v>0.9556396465241543</v>
+      </c>
+      <c r="J9">
+        <v>0.9556396465241543</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.104695</v>
+      </c>
+      <c r="N9">
+        <v>51.314085</v>
+      </c>
+      <c r="O9">
+        <v>0.4802363832729211</v>
+      </c>
+      <c r="P9">
+        <v>0.4802363832729211</v>
+      </c>
+      <c r="Q9">
+        <v>262.870295126405</v>
+      </c>
+      <c r="R9">
+        <v>2365.832656137645</v>
+      </c>
+      <c r="S9">
+        <v>0.4589329275589726</v>
+      </c>
+      <c r="T9">
+        <v>0.4589329275589726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.36831233333333</v>
+      </c>
+      <c r="H10">
+        <v>46.104937</v>
+      </c>
+      <c r="I10">
+        <v>0.9556396465241543</v>
+      </c>
+      <c r="J10">
+        <v>0.9556396465241543</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.852797333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.558392</v>
+      </c>
+      <c r="O10">
+        <v>0.1362485469700849</v>
+      </c>
+      <c r="P10">
+        <v>0.1362485469700849</v>
+      </c>
+      <c r="Q10">
+        <v>74.57930510903378</v>
+      </c>
+      <c r="R10">
+        <v>671.213745981304</v>
+      </c>
+      <c r="S10">
+        <v>0.1302045132659216</v>
+      </c>
+      <c r="T10">
+        <v>0.1302045132659216</v>
       </c>
     </row>
   </sheetData>
